--- a/_site/Data/StabilizationFundsCC.xlsx
+++ b/_site/Data/StabilizationFundsCC.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24709"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t>Question</t>
   </si>
@@ -57,7 +57,7 @@
 </t>
   </si>
   <si>
-    <t>34</t>
+    <t>34, 38</t>
   </si>
   <si>
     <t>How much did you receive?</t>
@@ -87,9 +87,6 @@
   </si>
   <si>
     <t>Please say more about why you did you receive this financial support. We are interested in as much detail as you wish to share.</t>
-  </si>
-  <si>
-    <t>34,</t>
   </si>
   <si>
     <t>How did you use/are you using the relief funds you received? Select all that apply.</t>
@@ -1420,8 +1417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95" customHeight="1"/>
@@ -1513,15 +1510,15 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="283.5">
       <c r="A7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -1531,10 +1528,10 @@
     </row>
     <row r="8" spans="1:5" ht="153" customHeight="1">
       <c r="A8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -1544,7 +1541,7 @@
     </row>
     <row r="9" spans="1:5" ht="153" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>6</v>
@@ -1557,7 +1554,7 @@
     </row>
     <row r="10" spans="1:5" ht="153" customHeight="1">
       <c r="A10" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>6</v>
@@ -1570,10 +1567,10 @@
     </row>
     <row r="11" spans="1:5" ht="267.75">
       <c r="A11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="3"/>
@@ -1583,7 +1580,7 @@
     </row>
     <row r="12" spans="1:5" ht="170.1" customHeight="1">
       <c r="A12" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>9</v>

--- a/_site/Data/StabilizationFundsCC.xlsx
+++ b/_site/Data/StabilizationFundsCC.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24923"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
   <si>
     <t>Question</t>
   </si>
@@ -45,7 +45,18 @@
     <t>Source Link</t>
   </si>
   <si>
-    <t>Occurrence</t>
+    <t>Dates Used</t>
+  </si>
+  <si>
+    <t>Has your program applied for financial support from your state’s child care relief or stabilization funds?</t>
+  </si>
+  <si>
+    <t>Yes
+No 
+I don’t know</t>
+  </si>
+  <si>
+    <t>01/11/2021-01/22/2021</t>
   </si>
   <si>
     <t>Has your program received financial support from your state's child care relief or stabilization funds?</t>
@@ -57,7 +68,7 @@
 </t>
   </si>
   <si>
-    <t>34, 38</t>
+    <t>10/13/2021-10/17/2021 11/10/2021-11/15/2021 12/07/2021-12/21/2021 01/11/2021-01/22/2021</t>
   </si>
   <si>
     <t>How much did you receive?</t>
@@ -105,6 +116,22 @@
 </t>
   </si>
   <si>
+    <t>10/13/2021-10/17/2021 11/10/2021-11/15/2021 12/07/2021-12/21/2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Payroll
+Benefits for staff or my self (health, dental, retirement, etc.)
+Supplies (cleaning, PPE, etc.)
+Program site improvement/renovations
+Program enrichment (books, toys etc.)
+Staff training
+Rent or mortgage
+Utilities or telecommunications
+Paying loans associated with the child care program
+Professional service (legal, accounting, tax prep, insurance)
+</t>
+  </si>
+  <si>
     <t>What impacts will these funds have for you and your program?</t>
   </si>
   <si>
@@ -119,6 +146,9 @@
   </si>
   <si>
     <t>Are the reporting or follow-up requiremnts for the funds clear?</t>
+  </si>
+  <si>
+    <t>10/13/2021-10/17/2021   11/10/2021-11/15/2021 12/07/2021-12/21/2021 01/11/2021-01/22/2021</t>
   </si>
   <si>
     <t>Where have you found information in the last year about applying to child care relief funds? Select all that apply.</t>
@@ -185,7 +215,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -221,11 +251,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFBFBFBF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -253,6 +292,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1415,10 +1460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95" customHeight="1"/>
@@ -1448,8 +1493,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="153" customHeight="1">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:5" ht="47.25">
+      <c r="A2" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -1457,12 +1502,12 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="242.25" customHeight="1">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:5" ht="153" customHeight="1">
+      <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -1471,80 +1516,80 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="159.75" customHeight="1">
-      <c r="A4" s="5" t="s">
-        <v>10</v>
+    <row r="4" spans="1:5" ht="242.25" customHeight="1">
+      <c r="A4" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="170.1" customHeight="1">
+    <row r="5" spans="1:5" ht="159.75" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="213" customHeight="1">
+    <row r="6" spans="1:5" ht="170.1" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="283.5">
-      <c r="A7" s="10" t="s">
-        <v>15</v>
+    <row r="7" spans="1:5" ht="213" customHeight="1">
+      <c r="A7" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="153" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>17</v>
+    <row r="8" spans="1:5" ht="283.5">
+      <c r="A8" s="12" t="s">
+        <v>18</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="4" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="153" customHeight="1">
-      <c r="A9" s="5" t="s">
-        <v>19</v>
+    <row r="9" spans="1:5" ht="299.25">
+      <c r="A9" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -1553,57 +1598,83 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="153" customHeight="1">
-      <c r="A10" s="5" t="s">
-        <v>20</v>
+      <c r="A10" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="267.75">
+    <row r="11" spans="1:5" ht="153" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
+      <c r="D11" s="2"/>
       <c r="E11" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="170.1" customHeight="1">
+    <row r="12" spans="1:5" ht="153" customHeight="1">
       <c r="A12" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="3"/>
+      <c r="D12" s="2"/>
       <c r="E12" s="4" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="102" customHeight="1">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
+    <row r="13" spans="1:5" ht="267.75">
+      <c r="A13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="C13" s="2"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="14" spans="1:5" ht="76.5" customHeight="1">
-      <c r="A14" s="7"/>
+    <row r="14" spans="1:5" ht="170.1" customHeight="1">
+      <c r="A14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="15" spans="1:5" ht="160.5" customHeight="1">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
+    <row r="15" spans="1:5" ht="102" customHeight="1">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" ht="76.5" customHeight="1">
+      <c r="A16" s="7"/>
+    </row>
+    <row r="17" spans="1:2" ht="160.5" customHeight="1">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/_site/Data/StabilizationFundsCC.xlsx
+++ b/_site/Data/StabilizationFundsCC.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24923"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25113"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -56,7 +56,7 @@
 I don’t know</t>
   </si>
   <si>
-    <t>01/11/2021-01/22/2021</t>
+    <t>01/11/2021-01/22/2021 48</t>
   </si>
   <si>
     <t>Has your program received financial support from your state's child care relief or stabilization funds?</t>
@@ -68,7 +68,7 @@
 </t>
   </si>
   <si>
-    <t>10/13/2021-10/17/2021 11/10/2021-11/15/2021 12/07/2021-12/21/2021 01/11/2021-01/22/2021</t>
+    <t>10/13/2021-10/17/2021 11/10/2021-11/15/2021 12/07/2021-12/21/2021 01/11/2021-01/22/2021 48</t>
   </si>
   <si>
     <t>How much did you receive?</t>
@@ -148,7 +148,7 @@
     <t>Are the reporting or follow-up requiremnts for the funds clear?</t>
   </si>
   <si>
-    <t>10/13/2021-10/17/2021   11/10/2021-11/15/2021 12/07/2021-12/21/2021 01/11/2021-01/22/2021</t>
+    <t>10/13/2021-10/17/2021   11/10/2021-11/15/2021 12/07/2021-12/21/2021 01/11/2021-01/22/2021 48</t>
   </si>
   <si>
     <t>Where have you found information in the last year about applying to child care relief funds? Select all that apply.</t>
@@ -1462,8 +1462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95" customHeight="1"/>
@@ -1471,7 +1471,7 @@
     <col min="1" max="1" width="38.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.125" style="1" customWidth="1"/>
     <col min="3" max="4" width="24.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
     <col min="7" max="16384" width="10.875" style="1"/>
   </cols>
